--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value462.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value462.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.250910013140117</v>
+        <v>1.220253229141235</v>
       </c>
       <c r="B1">
-        <v>1.86399384007205</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>3.85151751619088</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>3.223953055264059</v>
+        <v>1.675112128257751</v>
       </c>
       <c r="E1">
-        <v>0.5301275910049184</v>
+        <v>1.089678168296814</v>
       </c>
     </row>
   </sheetData>
